--- a/Webroot/core/StructureDefinition-il-core-observation-lab.xlsx
+++ b/Webroot/core/StructureDefinition-il-core-observation-lab.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.14.0</t>
+    <t>0.15.0</t>
   </si>
   <si>
     <t>Name</t>
